--- a/Assets/Other/_怪物.xlsx
+++ b/Assets/Other/_怪物.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="状态" sheetId="1" r:id="rId1"/>
     <sheet name="AI" sheetId="2" r:id="rId2"/>
     <sheet name="属性" sheetId="3" r:id="rId3"/>
+    <sheet name="种族" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>【无意识】</t>
   </si>
@@ -43,6 +44,33 @@
   </si>
   <si>
     <t>比如得了毛霉菌病，那么霉菌怪物好感++，不会主动攻击，因为认为是同类</t>
+  </si>
+  <si>
+    <t>野兽</t>
+  </si>
+  <si>
+    <t>亡灵-肉体</t>
+  </si>
+  <si>
+    <t>亡灵-灵魂</t>
+  </si>
+  <si>
+    <t>妖</t>
+  </si>
+  <si>
+    <t>修罗</t>
+  </si>
+  <si>
+    <t>鬼卒</t>
+  </si>
+  <si>
+    <t>机关</t>
+  </si>
+  <si>
+    <t>植物</t>
+  </si>
+  <si>
+    <t>神</t>
   </si>
 </sst>
 </file>
@@ -51,9 +79,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,22 +93,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,8 +121,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -117,6 +144,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -125,23 +159,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,6 +197,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -169,8 +213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,27 +229,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -217,6 +245,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -229,175 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,68 +441,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +464,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -508,6 +501,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -516,145 +544,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,7 +1107,7 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1105,4 +1133,66 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Assets/Other/_怪物.xlsx
+++ b/Assets/Other/_怪物.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="状态" sheetId="1" r:id="rId1"/>
     <sheet name="AI" sheetId="2" r:id="rId2"/>
     <sheet name="属性" sheetId="3" r:id="rId3"/>
     <sheet name="种族" sheetId="4" r:id="rId4"/>
+    <sheet name="Boss" sheetId="5" r:id="rId5"/>
+    <sheet name="随从" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>【无意识】</t>
   </si>
@@ -49,9 +51,57 @@
     <t>野兽</t>
   </si>
   <si>
+    <t>蚁群</t>
+  </si>
+  <si>
+    <t>狂犬</t>
+  </si>
+  <si>
+    <t>大鼠</t>
+  </si>
+  <si>
+    <t>乌鸦</t>
+  </si>
+  <si>
+    <t>双头犬</t>
+  </si>
+  <si>
+    <t>鼠群</t>
+  </si>
+  <si>
+    <t>三头犬</t>
+  </si>
+  <si>
+    <t>巨鼠</t>
+  </si>
+  <si>
     <t>亡灵-肉体</t>
   </si>
   <si>
+    <t>行尸</t>
+  </si>
+  <si>
+    <t>残缺骨架</t>
+  </si>
+  <si>
+    <t>畸形</t>
+  </si>
+  <si>
+    <t>活化肢体</t>
+  </si>
+  <si>
+    <t>毛僵</t>
+  </si>
+  <si>
+    <t>骷髅</t>
+  </si>
+  <si>
+    <t>爬行者</t>
+  </si>
+  <si>
+    <t>脓茧</t>
+  </si>
+  <si>
     <t>亡灵-灵魂</t>
   </si>
   <si>
@@ -61,7 +111,10 @@
     <t>修罗</t>
   </si>
   <si>
-    <t>鬼卒</t>
+    <t>阴兵</t>
+  </si>
+  <si>
+    <t>鬼差</t>
   </si>
   <si>
     <t>机关</t>
@@ -71,6 +124,102 @@
   </si>
   <si>
     <t>神</t>
+  </si>
+  <si>
+    <t>牛头</t>
+  </si>
+  <si>
+    <t>马面</t>
+  </si>
+  <si>
+    <t>黑无常</t>
+  </si>
+  <si>
+    <t>白无常</t>
+  </si>
+  <si>
+    <t>判官</t>
+  </si>
+  <si>
+    <t>赏善司魏征、罚恶司钟馗、察查司陆之道、阴律司崔钰</t>
+  </si>
+  <si>
+    <t>钟馗</t>
+  </si>
+  <si>
+    <t>单独的一个神</t>
+  </si>
+  <si>
+    <t>孟婆</t>
+  </si>
+  <si>
+    <t>地藏王菩萨</t>
+  </si>
+  <si>
+    <t>酆都</t>
+  </si>
+  <si>
+    <t>自定义：——————————————————————————————————</t>
+  </si>
+  <si>
+    <t>豹尾、鸟嘴、鱼鳃、黄蜂：分别管理路上兽类、天上鸟类、水中鱼类以及地上昆虫等各处动物的亡灵。</t>
+  </si>
+  <si>
+    <t>鬼将——xxx</t>
+  </si>
+  <si>
+    <t>鬼王——xxx</t>
+  </si>
+  <si>
+    <t>随从和怪物一同计算</t>
+  </si>
+  <si>
+    <t>随从可以通过魔法卷轴消耗品等途径获得，也可以捕获敌人</t>
+  </si>
+  <si>
+    <t>随从也可以释放技能</t>
+  </si>
+  <si>
+    <t>豆兵</t>
+  </si>
+  <si>
+    <t>吸收肥料以成长</t>
+  </si>
+  <si>
+    <t>豆兵(开花)</t>
+  </si>
+  <si>
+    <t>滋养 每隔一段时间群体回血</t>
+  </si>
+  <si>
+    <t>豆兵(结果)</t>
+  </si>
+  <si>
+    <t>死亡后召唤一个新的豆兵</t>
+  </si>
+  <si>
+    <t>兵俑(刀盾兵)</t>
+  </si>
+  <si>
+    <t>防御+</t>
+  </si>
+  <si>
+    <t>兵俑(长枪兵)</t>
+  </si>
+  <si>
+    <t>攻击+</t>
+  </si>
+  <si>
+    <t>兵俑(长弓兵)</t>
+  </si>
+  <si>
+    <t>远程</t>
+  </si>
+  <si>
+    <t>兵俑(战车兵)</t>
+  </si>
+  <si>
+    <t>击退</t>
   </si>
 </sst>
 </file>
@@ -78,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,6 +241,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -103,6 +267,76 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,42 +349,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -165,6 +363,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,64 +378,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,19 +394,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,13 +496,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,25 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,43 +538,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,67 +568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,11 +588,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,17 +633,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,8 +645,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,6 +668,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -512,30 +685,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -544,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,57 +1287,341 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="4:8">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="14.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Other/_怪物.xlsx
+++ b/Assets/Other/_怪物.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>【无意识】</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>击退</t>
+  </si>
+  <si>
+    <t>机关系列：</t>
+  </si>
+  <si>
+    <t>机关卫士</t>
   </si>
 </sst>
 </file>
@@ -227,10 +233,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -238,6 +244,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,7 +263,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,7 +277,107 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,113 +390,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -394,187 +400,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,17 +624,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,15 +640,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,6 +659,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -677,11 +685,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,145 +699,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1542,10 +1548,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1624,6 +1630,16 @@
         <v>66</v>
       </c>
     </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Other/_怪物.xlsx
+++ b/Assets/Other/_怪物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="状态" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>【无意识】</t>
   </si>
@@ -48,6 +48,15 @@
     <t>比如得了毛霉菌病，那么霉菌怪物好感++，不会主动攻击，因为认为是同类</t>
   </si>
   <si>
+    <t>活化肢体</t>
+  </si>
+  <si>
+    <t>行尸</t>
+  </si>
+  <si>
+    <t>宝箱怪？</t>
+  </si>
+  <si>
     <t>野兽</t>
   </si>
   <si>
@@ -78,18 +87,12 @@
     <t>亡灵-肉体</t>
   </si>
   <si>
-    <t>行尸</t>
-  </si>
-  <si>
     <t>残缺骨架</t>
   </si>
   <si>
     <t>畸形</t>
   </si>
   <si>
-    <t>活化肢体</t>
-  </si>
-  <si>
     <t>毛僵</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
   </si>
   <si>
     <t>亡灵-灵魂</t>
+  </si>
+  <si>
+    <t>低语的灵魂</t>
   </si>
   <si>
     <t>妖</t>
@@ -233,9 +239,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -248,7 +254,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,60 +358,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,30 +374,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -370,21 +391,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -400,18 +406,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -424,163 +586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,17 +600,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,25 +650,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -677,8 +683,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,8 +692,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,10 +705,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +717,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1293,10 +1299,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1309,130 +1315,140 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2">
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="4:8">
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="4:8">
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
+    <row r="7" spans="4:8">
+      <c r="D7" t="s">
         <v>17</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7">
+        <v>18</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
+    <row r="8" spans="4:8">
       <c r="D8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="J8" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="J12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1449,6 +1465,16 @@
     <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1470,73 +1496,73 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1550,7 +1576,7 @@
   <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1561,83 +1587,83 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
